--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R02A 2# 制袋机开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R02A 2# 制袋机开机前确认表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>确认结果</t>
   </si>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清洁袋是否放置到位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各气辊都处于关闭状态压住膜卷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原材料确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,163 +48,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车间环境、设备卫生是否符合生产工艺要求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却水与动力人员确认开启。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启纠偏系统，检查运行是否正常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据计划书规格调整切刀距离。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据指令单规格调整电眼距离，检查电眼是否居中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原材料规格是否与计划书相符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内外包装标签是否与计划书相符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭菌指示剂是否领取。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内包装袋领用是否与计划书相符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>压缩空气供应≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.6MPa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   制袋机开机准备工具表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工具名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无菌手套</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>透明胶带</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美工刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>内六角</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>盒尺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>活扳手</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>扳手一套</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>十字螺丝刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>一字螺丝刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>热封机</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>75%酒精消毒液</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>记号笔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>特氟隆热封胶带</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>产品标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>强力清洗剂</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>超洁净抹布</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>电眼镜头是否已清洁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>复核人/日期：                   年   月   日</t>
@@ -238,10 +155,6 @@
       </rPr>
       <t>颇尔奥星包装科技（北京）有限责任公司</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀具、胶带、记号笔、清洁抹布、酒精壶是否就位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,12 +276,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -448,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -646,13 +553,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,100 +667,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1076,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D5:E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,291 +1090,263 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>49</v>
+      <c r="A2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="35" t="s">
-        <v>51</v>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="16">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39">
         <v>1.2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39">
+        <v>2.4</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39">
+        <v>2.6</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39">
+        <v>2.7</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16">
-        <v>2.4</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C14" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16">
-        <v>2.6</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16">
-        <v>2.7</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34">
-        <v>3</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3.1</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16">
-        <v>3.2</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16">
-        <v>3.3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="C18" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="35" t="s">
-        <v>44</v>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="38"/>
+      <c r="A19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="41"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
@@ -1398,32 +1357,26 @@
       <c r="F21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
+  <mergeCells count="19">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1448,26 +1401,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1476,7 +1429,7 @@
     </row>
     <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -1485,7 +1438,7 @@
     </row>
     <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -1494,7 +1447,7 @@
     </row>
     <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -1503,7 +1456,7 @@
     </row>
     <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1512,7 +1465,7 @@
     </row>
     <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1521,7 +1474,7 @@
     </row>
     <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1530,7 +1483,7 @@
     </row>
     <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1539,7 +1492,7 @@
     </row>
     <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1548,7 +1501,7 @@
     </row>
     <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1557,7 +1510,7 @@
     </row>
     <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1566,7 +1519,7 @@
     </row>
     <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -1575,28 +1528,28 @@
     </row>
     <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>

--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R02A 2# 制袋机开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R02A 2# 制袋机开机前确认表.xlsx
@@ -709,6 +709,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -727,13 +751,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,30 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,14 +1103,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
@@ -1133,179 +1133,179 @@
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27">
         <v>1.2</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="27">
         <v>2.1</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27">
         <v>2.4</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27">
         <v>2.5</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27">
         <v>2.6</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27">
         <v>2.7</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="27">
         <v>3.1</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27">
         <v>3.2</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27">
         <v>3.3</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27">
         <v>3.4</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
@@ -1317,36 +1317,36 @@
       <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
@@ -1358,16 +1358,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
@@ -1377,6 +1367,16 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1401,11 +1401,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
